--- a/biology/Zoologie/Holbrookia_propinqua/Holbrookia_propinqua.xlsx
+++ b/biology/Zoologie/Holbrookia_propinqua/Holbrookia_propinqua.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Holbrookia propinqua est une espèce de sauriens de la famille des Phrynosomatidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Holbrookia propinqua est une espèce de sauriens de la famille des Phrynosomatidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 aux États-Unis, dans le sud du Texas ;
 dans le nord du Mexique, dans le nord de l’État de Veracruz et dans l'est de l’État de Tamaulipas.</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce lézard est terrestre et ovipare, les femelles enterrant leurs œufs. Il vit principalement dans des zones sablonneuses, que ce soit près des côtes ou dans des zones arides[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce lézard est terrestre et ovipare, les femelles enterrant leurs œufs. Il vit principalement dans des zones sablonneuses, que ce soit près des côtes ou dans des zones arides.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (18 février 2013)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (18 février 2013) :
 Holbrookia propinqua piperata Smith &amp; Burger, 1950
 Holbrookia propinqua propinqua Baird &amp; Girard, 1852
 Holbrookia propinqua stonei Harper, 1932</t>
@@ -607,7 +625,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Baird &amp; Girard, 1852 : Characteristics of some new reptiles in the Museum of the Smithsonian Institution, part 2. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 6, p. 125-129 (texte intégral).
 Smith &amp; Burger, 1950 "1949" : Herpetological results of the University of Illinois field expedition, Spring 1949. Transactions of the Kansas Academy of Sciences vol. 53, no 2, p. 165-175.
